--- a/doc/效率.xlsx
+++ b/doc/效率.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02MyCode\TDCGprogram\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77010725-BBA1-4CAC-AA33-F00284ADEAB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4FF6CB-3D82-435B-97A0-9229DD241B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13666" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>几何与层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>RayCast优化，cshift语句移动到递归外部，减少循环次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AABB算法修复少数相交单元未识别的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-优化前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化MollerTrumbore模块-去除平行判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化RayCast模块-增加点在bbox前后判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化RayCast模块-引入kdtree判断，计算量化为O(log2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-注释MollerTrumbore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,14 +159,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,19 +453,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.87890625" customWidth="1"/>
-    <col min="2" max="2" width="38" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.1171875" customWidth="1"/>
-    <col min="4" max="4" width="7.41015625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="2" max="2" width="38" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5859375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.29296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.9375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.234375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.29296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.9375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.29296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.17578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
@@ -447,22 +486,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="30.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
@@ -520,199 +569,592 @@
       <c r="A5" s="1">
         <v>44307</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>148819</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <f>AVERAGE(140.92,140.58)</f>
         <v>140.75</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <f>AVERAGE(13.27,13.25)</f>
         <v>13.26</v>
       </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5">
         <f>AVERAGE(144.89,146.58)</f>
         <v>145.73500000000001</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>144605</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <f>AVERAGE(12.59,12.78)</f>
         <v>12.684999999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <f>AVERAGE(12.2,12.03)</f>
         <v>12.114999999999998</v>
       </c>
-      <c r="J7">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4">
         <v>1550165</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>11241.41</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
         <f>AVERAGE(20.12,20.38,20.7,20.2)</f>
         <v>20.350000000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44309</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>148819</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>85.23</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>8.81</v>
       </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5">
         <v>88.66</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>144605</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>8.5500000000000007</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>7.97</v>
       </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5">
         <v>13.06</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44309</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>148819</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>17.16</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>1.64</v>
       </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5">
         <v>18.27</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>144605</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>2.16</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>1.67</v>
       </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5">
         <v>3.06</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>148924</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.44</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="G17">
+        <v>2319981</v>
+      </c>
+      <c r="H17" s="5">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="I17" s="5">
+        <v>30.05</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1964523</v>
+      </c>
+      <c r="K17" s="5">
+        <v>700.5</v>
+      </c>
+      <c r="L17" s="5">
+        <v>697.02</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="3"/>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="H18" s="5">
+        <v>55</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>29.28</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(21.02,20.84)</f>
+        <v>20.93</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="3"/>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>19.89</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <f>AVERAGE(18.88,19.36,19.17)</f>
+        <v>19.136666666666667</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>148819</v>
+      </c>
+      <c r="E23">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.22</v>
+      </c>
+      <c r="G23">
+        <v>2309866</v>
+      </c>
+      <c r="H23">
+        <v>38.92</v>
+      </c>
+      <c r="I23">
+        <v>3.52</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>148819</v>
+      </c>
+      <c r="E24">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>2309866</v>
+      </c>
+      <c r="H24">
+        <v>40.53</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>148924</v>
+      </c>
+      <c r="E25">
+        <v>0.86</v>
+      </c>
+      <c r="F25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G25">
+        <v>2319981</v>
+      </c>
+      <c r="H25">
+        <v>14.16</v>
+      </c>
+      <c r="I25">
+        <v>3.7</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>148924</v>
+      </c>
+      <c r="E26">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>2319981</v>
+      </c>
+      <c r="H26">
+        <v>14.64</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>148924</v>
+      </c>
+      <c r="E27">
+        <v>2.52</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>2319981</v>
+      </c>
+      <c r="H27">
+        <v>35.39</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>148672</v>
+      </c>
+      <c r="E28">
+        <v>31.89</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>2307283</v>
+      </c>
+      <c r="H28">
+        <v>435.05</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/效率.xlsx
+++ b/doc/效率.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02MyCode\TDCGprogram\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4FF6CB-3D82-435B-97A0-9229DD241B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B43291B-4EA5-4D74-A481-27F76ECADFE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13666" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>几何与层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>4-注释MollerTrumbore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pantograph-2254812element-domain(-40,-1.7,3,-26,1.7,5.5)-nCell(100,40,40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,19 +171,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,704 +480,763 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V26" sqref="Q25:V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.87890625" customWidth="1"/>
-    <col min="2" max="2" width="38" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5859375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.29296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.9375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.29296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.9375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.234375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.29296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.17578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.87890625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.9375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.9375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.9375" style="4"/>
+    <col min="18" max="18" width="9.05859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.9375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D3" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D4" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="P4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
         <v>44307</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>148819</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <f>AVERAGE(140.92,140.58)</f>
         <v>140.75</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <f>AVERAGE(13.27,13.25)</f>
         <v>13.26</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="3"/>
-      <c r="C6">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
         <f>AVERAGE(144.89,146.58)</f>
         <v>145.73500000000001</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-      <c r="C7">
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>144605</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <f>AVERAGE(12.59,12.78)</f>
         <v>12.684999999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <f>AVERAGE(12.2,12.03)</f>
         <v>12.114999999999998</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6">
         <v>1550165</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <v>11241.41</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="3"/>
-      <c r="C8">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
         <f>AVERAGE(20.12,20.38,20.7,20.2)</f>
         <v>20.350000000000001</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
         <v>44309</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>148819</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>85.23</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>8.81</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="3"/>
-      <c r="C10">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7">
         <v>88.66</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="3"/>
-      <c r="C11">
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>144605</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>8.5500000000000007</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>7.97</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="3"/>
-      <c r="C12">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7">
         <v>13.06</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
         <v>44309</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>148819</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>17.16</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>1.64</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="3"/>
-      <c r="C14">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7">
         <v>18.27</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="3"/>
-      <c r="C15">
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>144605</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>2.16</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="7">
         <v>1.67</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="3"/>
-      <c r="C16">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7">
         <v>3.06</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
         <v>44312</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>148924</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>2.44</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <v>1.88</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>2319981</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="7">
         <v>40.520000000000003</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="7">
         <v>30.05</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="6">
         <v>1964523</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="7">
         <v>700.5</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="7">
         <v>697.02</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="3"/>
-      <c r="C18">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5">
+      <c r="D18" s="6"/>
+      <c r="E18" s="7">
         <v>3.39</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="H18" s="5">
+      <c r="F18" s="7"/>
+      <c r="H18" s="7">
         <v>55</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B19" s="3" t="s">
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>29.28</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B20" s="3"/>
-      <c r="C20" t="s">
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <f>AVERAGE(21.02,20.84)</f>
         <v>20.93</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B21" s="3"/>
-      <c r="C21">
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>19.89</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:22" ht="27.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <f>AVERAGE(18.88,19.36,19.17)</f>
         <v>19.136666666666667</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B23" s="3" t="s">
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>148819</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>0.22</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>2309866</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>38.92</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>3.52</v>
       </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B24" s="3"/>
-      <c r="C24">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>148819</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4">
         <v>2309866</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>40.53</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C25">
+      <c r="I24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>148924</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>0.86</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>2319981</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>14.16</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>3.7</v>
       </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C26">
+      <c r="J25" s="6">
+        <v>1964523</v>
+      </c>
+      <c r="K25" s="4">
+        <v>21.25</v>
+      </c>
+      <c r="L25" s="4">
+        <v>12.48</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1960134</v>
+      </c>
+      <c r="N25" s="4">
+        <v>831.98</v>
+      </c>
+      <c r="O25" s="4">
+        <v>86.31</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>726.67</v>
+      </c>
+      <c r="R25" s="4">
+        <v>30200801</v>
+      </c>
+      <c r="S25" s="4">
+        <v>2455.09</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1561.42</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="V25" s="4">
+        <v>724.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>148924</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>0.9</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4">
         <v>2319981</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>14.64</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C27">
+      <c r="I26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1964523</v>
+      </c>
+      <c r="K26" s="4">
+        <v>26.64</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1960134</v>
+      </c>
+      <c r="N26" s="4">
+        <v>894.08</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>753.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4">
         <v>5</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>148924</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>2.52</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4">
         <v>2319981</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>35.39</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C28">
+      <c r="I27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>148672</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>31.89</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4">
         <v>2307283</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>435.05</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="J32" s="4"/>
+      <c r="I28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J2:O2"/>
+  <mergeCells count="10">
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>

--- a/doc/效率.xlsx
+++ b/doc/效率.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02MyCode\TDCGprogram\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02MyCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB5082-25D0-4044-998D-4A7B3E421369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638D427-5219-4D08-B200-33F8FAFE92C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13666" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="程序优化" sheetId="1" r:id="rId1"/>
     <sheet name="小论文" sheetId="2" r:id="rId2"/>
     <sheet name="文献效率" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="内存分析" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>几何与层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,14 +723,63 @@
     <t>others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old*10^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.7.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FTT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，正确的最小距离查询，正确的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -885,13 +934,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1170,6 +1222,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,13 +1285,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6125,7 +6217,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>小论文!$U$89:$U$95</c:f>
+              <c:f>小论文!$U$82:$U$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6155,7 +6247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>小论文!$Z$89:$Z$95</c:f>
+              <c:f>小论文!$Z$82:$Z$88</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -6207,7 +6299,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>小论文!$U$89:$U$95</c:f>
+              <c:f>小论文!$U$82:$U$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6237,7 +6329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>小论文!$Y$89:$Y$95</c:f>
+              <c:f>小论文!$Y$82:$Y$88</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6529,7 +6621,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>小论文!$U$97:$U$101</c:f>
+              <c:f>小论文!$U$90:$U$94</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6553,7 +6645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>小论文!$Z$97:$Z$101</c:f>
+              <c:f>小论文!$Z$90:$Z$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6599,7 +6691,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>小论文!$U$97:$U$101</c:f>
+              <c:f>小论文!$U$90:$U$94</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6623,7 +6715,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>小论文!$Y$97:$Y$101</c:f>
+              <c:f>小论文!$Y$90:$Y$94</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11846,16 +11938,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>227014</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>17993</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>103862</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>588512</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>143151</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>465360</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11882,16 +11974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>563034</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>15872</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>124307</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>131327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>285300</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>136796</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>493118</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>90614</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11918,16 +12010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>487890</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>603345</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>65231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>199576</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>143149</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>315031</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27694</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11956,16 +12048,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>535516</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>289212</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>249315</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>120925</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>3012</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>13168</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11994,16 +12086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>491067</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>444885</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>213333</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>44725</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>167151</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>144786</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12032,16 +12124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>478366</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>59266</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>378304</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>200632</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>15091</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600874</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>45879</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12070,16 +12162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>237067</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>537248</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>602799</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>150557</xdr:rowOff>
+      <xdr:colOff>256435</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4314</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12108,16 +12200,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>186266</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>517237</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>414867</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>156633</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>499534</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>25785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12144,16 +12236,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>156633</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>141239</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>83513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>450849</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>122767</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>150668</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>91979</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12449,7 +12541,7 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:V17"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -12472,10 +12564,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="107"/>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12490,31 +12582,31 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="94" t="s">
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="D3" s="2" t="s">
@@ -12596,7 +12688,7 @@
       <c r="A5" s="3">
         <v>44307</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="108" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
@@ -12621,7 +12713,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B6" s="95"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -12641,7 +12733,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B7" s="95"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -12670,7 +12762,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B8" s="95"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -12693,7 +12785,7 @@
       <c r="A9" s="3">
         <v>44309</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="108" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2">
@@ -12716,7 +12808,7 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B10" s="95"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="2">
         <v>2</v>
       </c>
@@ -12735,7 +12827,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B11" s="95"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="2">
         <v>3</v>
       </c>
@@ -12756,7 +12848,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B12" s="95"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="2">
         <v>4</v>
       </c>
@@ -12778,7 +12870,7 @@
       <c r="A13" s="3">
         <v>44309</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="108" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -12801,7 +12893,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" s="95"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="2">
         <v>2</v>
       </c>
@@ -12820,7 +12912,7 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B15" s="95"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="2">
         <v>3</v>
       </c>
@@ -12841,7 +12933,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B16" s="95"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="2">
         <v>4</v>
       </c>
@@ -12863,7 +12955,7 @@
       <c r="A17" s="3">
         <v>44312</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="108" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2">
@@ -12898,7 +12990,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B18" s="95"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="2">
         <v>4</v>
       </c>
@@ -12916,7 +13008,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="108" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -12928,7 +13020,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B20" s="95"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
@@ -12942,7 +13034,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B21" s="95"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="2">
         <v>2</v>
       </c>
@@ -12971,7 +13063,7 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="108" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2">
@@ -12998,7 +13090,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B24" s="95"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="2">
         <v>2</v>
       </c>
@@ -13023,7 +13115,7 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B25" s="95"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="2">
         <v>3</v>
       </c>
@@ -13086,7 +13178,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B26" s="95"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="2">
         <v>4</v>
       </c>
@@ -13134,7 +13226,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B27" s="95"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="2">
         <v>5</v>
       </c>
@@ -13159,7 +13251,7 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B28" s="95"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="2">
         <v>6</v>
       </c>
@@ -13216,11 +13308,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0D827F-0457-4DA8-A7C4-C1E9F295AC11}">
-  <dimension ref="A1:AI101"/>
+  <dimension ref="A1:AI114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O105" sqref="O105"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.45"/>
@@ -13306,7 +13398,7 @@
         <v>44312</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="109" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="11">
@@ -13364,7 +13456,7 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="97"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -13411,7 +13503,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="97"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -13461,7 +13553,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="97"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -13508,7 +13600,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="97"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10">
@@ -13560,7 +13652,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="97"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -13607,7 +13699,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="97"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="11">
         <v>82744</v>
       </c>
@@ -13661,7 +13753,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="97"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -13708,7 +13800,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="97"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="10">
@@ -13760,7 +13852,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="97"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -13807,7 +13899,7 @@
     <row r="12" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="98"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="13">
         <v>620134</v>
       </c>
@@ -13859,10 +13951,10 @@
       <c r="A13" s="25">
         <v>44327</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="109" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="11">
@@ -13922,8 +14014,8 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -13969,8 +14061,8 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
@@ -14024,8 +14116,8 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -14071,7 +14163,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
-      <c r="B17" s="103"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
@@ -14132,7 +14224,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
-      <c r="B18" s="103"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -14179,8 +14271,8 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="116"/>
+      <c r="C19" s="110" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="8">
@@ -14240,8 +14332,8 @@
     </row>
     <row r="20" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="13"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="98"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -14289,10 +14381,10 @@
       <c r="A21" s="28">
         <v>44328</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="109" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="11">
@@ -14351,8 +14443,8 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="B22" s="101"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="110"/>
       <c r="G22" s="9">
         <v>4</v>
       </c>
@@ -14401,8 +14493,8 @@
       <c r="AA22" s="53"/>
     </row>
     <row r="23" spans="1:30" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="101"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="110"/>
       <c r="F23" s="9">
         <v>7</v>
       </c>
@@ -14463,8 +14555,8 @@
       <c r="AD23" s="75"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="B24" s="101"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="110"/>
       <c r="G24" s="9">
         <v>4</v>
       </c>
@@ -14536,8 +14628,8 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="B25" s="101"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="11">
         <v>82744</v>
       </c>
@@ -14630,8 +14722,8 @@
     </row>
     <row r="26" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="13"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="98"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -15746,7 +15838,7 @@
       <c r="A46" s="28">
         <v>44333</v>
       </c>
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="112" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="65" t="s">
@@ -15823,7 +15915,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B47" s="99"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="65"/>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -15882,7 +15974,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B48" s="99"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="65"/>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
@@ -15940,7 +16032,7 @@
       </c>
     </row>
     <row r="49" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B49" s="99"/>
+      <c r="B49" s="112"/>
       <c r="C49" s="65"/>
       <c r="D49" s="40"/>
       <c r="E49" s="40"/>
@@ -16009,7 +16101,7 @@
       </c>
     </row>
     <row r="50" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B50" s="99"/>
+      <c r="B50" s="112"/>
       <c r="G50" s="41">
         <v>4</v>
       </c>
@@ -16049,7 +16141,7 @@
       </c>
     </row>
     <row r="51" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B51" s="99"/>
+      <c r="B51" s="112"/>
       <c r="G51" s="9">
         <v>5</v>
       </c>
@@ -16096,7 +16188,7 @@
       <c r="AC51" s="40"/>
     </row>
     <row r="52" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B52" s="99"/>
+      <c r="B52" s="112"/>
       <c r="F52" s="40">
         <v>5</v>
       </c>
@@ -16147,7 +16239,7 @@
       </c>
     </row>
     <row r="53" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B53" s="99"/>
+      <c r="B53" s="112"/>
       <c r="F53" s="40"/>
       <c r="G53" s="41">
         <v>4</v>
@@ -16190,7 +16282,7 @@
       </c>
     </row>
     <row r="54" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B54" s="99"/>
+      <c r="B54" s="112"/>
       <c r="G54" s="9">
         <v>5</v>
       </c>
@@ -16239,7 +16331,7 @@
       </c>
     </row>
     <row r="55" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B55" s="99"/>
+      <c r="B55" s="112"/>
       <c r="F55" s="9">
         <v>6</v>
       </c>
@@ -17712,7 +17804,7 @@
         <v>8.6274383138160611E-7</v>
       </c>
     </row>
-    <row r="81" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F81" s="47"/>
       <c r="G81" s="47">
         <v>5</v>
@@ -17753,8 +17845,20 @@
         <f t="shared" si="21"/>
         <v>8.3724401370529998E-7</v>
       </c>
+      <c r="V81" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="W81" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X81" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="82" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F82" s="47">
         <v>7</v>
       </c>
@@ -17797,8 +17901,31 @@
         <f t="shared" si="21"/>
         <v>6.6087087874957262E-7</v>
       </c>
+      <c r="U82" s="91">
+        <v>1</v>
+      </c>
+      <c r="V82" s="85">
+        <f>J54</f>
+        <v>6.11</v>
+      </c>
+      <c r="W82" s="85">
+        <f>M54</f>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="X82" s="85">
+        <f>N54</f>
+        <v>3.12</v>
+      </c>
+      <c r="Y82" s="85">
+        <f>V82-W82-X82</f>
+        <v>1.88</v>
+      </c>
+      <c r="Z82" s="96">
+        <f>W82+X82</f>
+        <v>4.2300000000000004</v>
+      </c>
     </row>
-    <row r="83" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F83" s="47"/>
       <c r="G83" s="47">
         <v>4</v>
@@ -17821,8 +17948,31 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="U83" s="91">
+        <v>5</v>
+      </c>
+      <c r="V83" s="85">
+        <f>J63</f>
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="W83" s="85">
+        <f>M63</f>
+        <v>1.3600000000000003</v>
+      </c>
+      <c r="X83" s="85">
+        <f>N63</f>
+        <v>6.02</v>
+      </c>
+      <c r="Y83" s="85">
+        <f t="shared" ref="Y83:Y94" si="22">V83-W83-X83</f>
+        <v>2</v>
+      </c>
+      <c r="Z83" s="96">
+        <f t="shared" ref="Z83:Z88" si="23">W83+X83</f>
+        <v>7.38</v>
+      </c>
     </row>
-    <row r="84" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F84" s="47"/>
       <c r="G84" s="47">
         <v>5</v>
@@ -17863,8 +18013,31 @@
         <f t="shared" si="21"/>
         <v>6.6043879579517714E-7</v>
       </c>
+      <c r="U84" s="91">
+        <v>10</v>
+      </c>
+      <c r="V84" s="85">
+        <f>J69</f>
+        <v>11.22</v>
+      </c>
+      <c r="W84" s="85">
+        <f>M69</f>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="X84" s="85">
+        <f>N69</f>
+        <v>7.78</v>
+      </c>
+      <c r="Y84" s="85">
+        <f t="shared" si="22"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="Z84" s="96">
+        <f t="shared" si="23"/>
+        <v>9.2200000000000006</v>
+      </c>
     </row>
-    <row r="85" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D85" s="9">
         <v>500828</v>
       </c>
@@ -17916,8 +18089,31 @@
         <f t="shared" si="21"/>
         <v>1.2467434393465997E-6</v>
       </c>
+      <c r="U85" s="91">
+        <v>50</v>
+      </c>
+      <c r="V85" s="85">
+        <f>J75</f>
+        <v>21.95</v>
+      </c>
+      <c r="W85" s="85">
+        <f>M75</f>
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="X85" s="85">
+        <f>N75</f>
+        <v>18.170000000000002</v>
+      </c>
+      <c r="Y85" s="85">
+        <f t="shared" si="22"/>
+        <v>2.09</v>
+      </c>
+      <c r="Z85" s="96">
+        <f t="shared" si="23"/>
+        <v>19.86</v>
+      </c>
     </row>
-    <row r="86" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F86" s="47"/>
       <c r="G86" s="49">
         <v>4</v>
@@ -17958,8 +18154,31 @@
         <f t="shared" si="21"/>
         <v>1.1398797159740348E-6</v>
       </c>
+      <c r="U86" s="91">
+        <v>100</v>
+      </c>
+      <c r="V86" s="85">
+        <f>J81</f>
+        <v>35.979999999999997</v>
+      </c>
+      <c r="W86" s="85">
+        <f>M81</f>
+        <v>1.9699999999999953</v>
+      </c>
+      <c r="X86" s="85">
+        <f>N81</f>
+        <v>31.94</v>
+      </c>
+      <c r="Y86" s="85">
+        <f t="shared" si="22"/>
+        <v>2.0700000000000038</v>
+      </c>
+      <c r="Z86" s="96">
+        <f t="shared" si="23"/>
+        <v>33.909999999999997</v>
+      </c>
     </row>
-    <row r="87" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F87" s="47"/>
       <c r="G87" s="47">
         <v>5</v>
@@ -18000,8 +18219,31 @@
         <f t="shared" si="21"/>
         <v>1.1755009570982228E-6</v>
       </c>
+      <c r="U87" s="91">
+        <v>500</v>
+      </c>
+      <c r="V87" s="85">
+        <f>J87</f>
+        <v>72.34</v>
+      </c>
+      <c r="W87" s="85">
+        <f>M87</f>
+        <v>2.6400000000000006</v>
+      </c>
+      <c r="X87" s="85">
+        <f>N87</f>
+        <v>67.72</v>
+      </c>
+      <c r="Y87" s="85">
+        <f t="shared" si="22"/>
+        <v>1.980000000000004</v>
+      </c>
+      <c r="Z87" s="96">
+        <f t="shared" si="23"/>
+        <v>70.36</v>
+      </c>
     </row>
-    <row r="88" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F88" s="47">
         <v>7</v>
       </c>
@@ -18026,20 +18268,31 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V88" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="W88" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="X88" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y88" s="9" t="s">
-        <v>102</v>
+      <c r="U88" s="91">
+        <v>1000</v>
+      </c>
+      <c r="V88" s="85">
+        <f>J93</f>
+        <v>117.02</v>
+      </c>
+      <c r="W88" s="85">
+        <f>M93</f>
+        <v>3.4899999999999949</v>
+      </c>
+      <c r="X88" s="85">
+        <f>N93</f>
+        <v>111.56</v>
+      </c>
+      <c r="Y88" s="85">
+        <f t="shared" si="22"/>
+        <v>1.9699999999999989</v>
+      </c>
+      <c r="Z88" s="96">
+        <f t="shared" si="23"/>
+        <v>115.05</v>
       </c>
     </row>
-    <row r="89" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F89" s="47"/>
       <c r="G89" s="47">
         <v>4</v>
@@ -18062,31 +18315,9 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U89" s="91">
-        <v>1</v>
-      </c>
-      <c r="V89" s="85">
-        <f>J54</f>
-        <v>6.11</v>
-      </c>
-      <c r="W89" s="85">
-        <f>M54</f>
-        <v>1.1100000000000003</v>
-      </c>
-      <c r="X89" s="85">
-        <f>N54</f>
-        <v>3.12</v>
-      </c>
-      <c r="Y89" s="85">
-        <f>V89-W89-X89</f>
-        <v>1.88</v>
-      </c>
-      <c r="Z89" s="104">
-        <f>W89+X89</f>
-        <v>4.2300000000000004</v>
-      </c>
+      <c r="Y89" s="85"/>
     </row>
-    <row r="90" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F90" s="47"/>
       <c r="G90" s="47">
         <v>5</v>
@@ -18109,31 +18340,31 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U90" s="91">
-        <v>5</v>
-      </c>
-      <c r="V90" s="85">
-        <f>J63</f>
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="W90" s="85">
-        <f>M63</f>
-        <v>1.3600000000000003</v>
-      </c>
-      <c r="X90" s="85">
-        <f>N63</f>
-        <v>6.02</v>
+      <c r="U90" s="85">
+        <v>0.142316</v>
+      </c>
+      <c r="V90" s="92">
+        <f>J48</f>
+        <v>0.36</v>
+      </c>
+      <c r="W90" s="92">
+        <f>M48</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="X90" s="92">
+        <f>N48</f>
+        <v>0.19</v>
       </c>
       <c r="Y90" s="85">
-        <f t="shared" ref="Y90:Y101" si="22">V90-W90-X90</f>
-        <v>2</v>
-      </c>
-      <c r="Z90" s="104">
-        <f t="shared" ref="Z90:Z95" si="23">W90+X90</f>
-        <v>7.38</v>
+        <f t="shared" si="22"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="Z90" s="9">
+        <f>W90+X90</f>
+        <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="91" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D91" s="9">
         <v>1019642</v>
       </c>
@@ -18185,31 +18416,31 @@
         <f t="shared" si="21"/>
         <v>1.5481327947925302E-6</v>
       </c>
-      <c r="U91" s="91">
-        <v>10</v>
-      </c>
-      <c r="V91" s="85">
-        <f>J69</f>
-        <v>11.22</v>
-      </c>
-      <c r="W91" s="85">
-        <f>M69</f>
-        <v>1.4400000000000004</v>
-      </c>
-      <c r="X91" s="85">
-        <f>N69</f>
-        <v>7.78</v>
+      <c r="U91" s="85">
+        <v>0.54747599999999996</v>
+      </c>
+      <c r="V91" s="92">
+        <f>J51</f>
+        <v>1.44</v>
+      </c>
+      <c r="W91" s="92">
+        <f>M51</f>
+        <v>0.26</v>
+      </c>
+      <c r="X91" s="92">
+        <f>N51</f>
+        <v>0.8</v>
       </c>
       <c r="Y91" s="85">
         <f t="shared" si="22"/>
-        <v>2.0000000000000009</v>
-      </c>
-      <c r="Z91" s="104">
-        <f t="shared" si="23"/>
-        <v>9.2200000000000006</v>
+        <v>0.37999999999999989</v>
+      </c>
+      <c r="Z91" s="92">
+        <f t="shared" ref="Z91:Z94" si="24">W91+X91</f>
+        <v>1.06</v>
       </c>
     </row>
-    <row r="92" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F92" s="47"/>
       <c r="G92" s="49">
         <v>4</v>
@@ -18250,31 +18481,31 @@
         <f t="shared" si="21"/>
         <v>1.3821011617278232E-6</v>
       </c>
-      <c r="U92" s="91">
-        <v>50</v>
-      </c>
-      <c r="V92" s="85">
-        <f>J75</f>
-        <v>21.95</v>
-      </c>
-      <c r="W92" s="85">
-        <f>M75</f>
-        <v>1.6899999999999977</v>
-      </c>
-      <c r="X92" s="85">
-        <f>N75</f>
-        <v>18.170000000000002</v>
+      <c r="U92" s="85">
+        <v>2.1744159999999999</v>
+      </c>
+      <c r="V92" s="92">
+        <f>J54</f>
+        <v>6.11</v>
+      </c>
+      <c r="W92" s="92">
+        <f>M54</f>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="X92" s="92">
+        <f>N54</f>
+        <v>3.12</v>
       </c>
       <c r="Y92" s="85">
         <f t="shared" si="22"/>
-        <v>2.09</v>
-      </c>
-      <c r="Z92" s="104">
-        <f t="shared" si="23"/>
-        <v>19.86</v>
+        <v>1.88</v>
+      </c>
+      <c r="Z92" s="92">
+        <f t="shared" si="24"/>
+        <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="93" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F93" s="47"/>
       <c r="G93" s="47">
         <v>5</v>
@@ -18315,31 +18546,31 @@
         <f t="shared" si="21"/>
         <v>1.5660821605292527E-6</v>
       </c>
-      <c r="U93" s="91">
-        <v>100</v>
-      </c>
-      <c r="V93" s="85">
-        <f>J81</f>
-        <v>35.979999999999997</v>
-      </c>
-      <c r="W93" s="85">
-        <f>M81</f>
-        <v>1.9699999999999953</v>
-      </c>
-      <c r="X93" s="85">
-        <f>N81</f>
-        <v>31.94</v>
+      <c r="U93" s="85">
+        <v>8.6901840000000004</v>
+      </c>
+      <c r="V93" s="92">
+        <f>J57</f>
+        <v>25.45</v>
+      </c>
+      <c r="W93" s="92">
+        <f>M57</f>
+        <v>4.0299999999999976</v>
+      </c>
+      <c r="X93" s="92">
+        <f>N57</f>
+        <v>12.48</v>
       </c>
       <c r="Y93" s="85">
         <f t="shared" si="22"/>
-        <v>2.0700000000000038</v>
-      </c>
-      <c r="Z93" s="104">
-        <f t="shared" si="23"/>
-        <v>33.909999999999997</v>
+        <v>8.9400000000000013</v>
+      </c>
+      <c r="Z93" s="92">
+        <f t="shared" si="24"/>
+        <v>16.509999999999998</v>
       </c>
     </row>
-    <row r="94" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F94" s="47">
         <v>7</v>
       </c>
@@ -18382,31 +18613,31 @@
         <f t="shared" si="21"/>
         <v>8.2814117197984985E-7</v>
       </c>
-      <c r="U94" s="91">
-        <v>500</v>
-      </c>
-      <c r="V94" s="85">
-        <f>J87</f>
-        <v>72.34</v>
-      </c>
-      <c r="W94" s="85">
-        <f>M87</f>
-        <v>2.6400000000000006</v>
-      </c>
-      <c r="X94" s="85">
-        <f>N87</f>
-        <v>67.72</v>
+      <c r="U94" s="85">
+        <v>35.013452999999998</v>
+      </c>
+      <c r="V94" s="92">
+        <f>J60</f>
+        <v>106.73</v>
+      </c>
+      <c r="W94" s="92">
+        <f>M60</f>
+        <v>15.900000000000006</v>
+      </c>
+      <c r="X94" s="92">
+        <f>N60</f>
+        <v>51.78</v>
       </c>
       <c r="Y94" s="85">
         <f t="shared" si="22"/>
-        <v>1.980000000000004</v>
-      </c>
-      <c r="Z94" s="104">
-        <f t="shared" si="23"/>
-        <v>70.36</v>
+        <v>39.049999999999997</v>
+      </c>
+      <c r="Z94" s="92">
+        <f t="shared" si="24"/>
+        <v>67.680000000000007</v>
       </c>
     </row>
-    <row r="95" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="F95" s="47"/>
       <c r="G95" s="47">
         <v>4</v>
@@ -18429,55 +18660,37 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U95" s="91">
-        <v>1000</v>
-      </c>
-      <c r="V95" s="85">
-        <f>J93</f>
-        <v>117.02</v>
-      </c>
-      <c r="W95" s="85">
-        <f>M93</f>
-        <v>3.4899999999999949</v>
-      </c>
-      <c r="X95" s="85">
-        <f>N93</f>
-        <v>111.56</v>
-      </c>
-      <c r="Y95" s="85">
-        <f t="shared" si="22"/>
-        <v>1.9699999999999989</v>
-      </c>
-      <c r="Z95" s="104">
-        <f t="shared" si="23"/>
-        <v>115.05</v>
-      </c>
     </row>
-    <row r="96" spans="4:26" x14ac:dyDescent="0.45">
-      <c r="F96" s="47"/>
-      <c r="G96" s="47">
+    <row r="96" spans="1:26" ht="13" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="105"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="105">
         <v>5</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H96" s="105">
         <v>38290573</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="105">
         <v>2058.4699999999998</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="105">
         <v>1977.77</v>
       </c>
-      <c r="K96" s="9">
+      <c r="K96" s="105">
         <v>14.52</v>
       </c>
-      <c r="L96" s="9">
+      <c r="L96" s="105">
         <v>34.299999999999997</v>
       </c>
-      <c r="M96" s="45">
+      <c r="M96" s="103">
         <f t="shared" si="20"/>
         <v>32.900000000000091</v>
       </c>
-      <c r="N96" s="9">
+      <c r="N96" s="105">
         <v>1896.05</v>
       </c>
       <c r="O96" s="20"/>
@@ -18494,135 +18707,102 @@
         <f t="shared" si="21"/>
         <v>8.5921931750668997E-7</v>
       </c>
-      <c r="Y96" s="85"/>
     </row>
-    <row r="97" spans="21:26" x14ac:dyDescent="0.45">
-      <c r="U97" s="85">
-        <v>0.142316</v>
-      </c>
-      <c r="V97" s="92">
-        <f>J48</f>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A97" s="28">
+        <v>44405</v>
+      </c>
+      <c r="B97" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="104"/>
+      <c r="D97" s="104">
+        <v>10278</v>
+      </c>
+      <c r="E97" s="104"/>
+      <c r="F97" s="104">
+        <v>5</v>
+      </c>
+      <c r="G97" s="104">
+        <v>3</v>
+      </c>
+      <c r="H97" s="104">
+        <v>2259319</v>
+      </c>
+      <c r="I97" s="104">
+        <v>6.59</v>
+      </c>
+      <c r="J97" s="104">
+        <v>3</v>
+      </c>
+      <c r="K97" s="104">
+        <v>0.06</v>
+      </c>
+      <c r="L97" s="104">
+        <v>1.38</v>
+      </c>
+      <c r="M97" s="104">
+        <v>1.2</v>
+      </c>
+      <c r="N97" s="104">
         <v>0.36</v>
       </c>
-      <c r="W97" s="92">
-        <f t="shared" ref="V97:X97" si="24">M48</f>
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="X97" s="92">
-        <f t="shared" si="24"/>
-        <v>0.19</v>
-      </c>
-      <c r="Y97" s="85">
-        <f t="shared" si="22"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="Z97" s="9">
-        <f>W97+X97</f>
-        <v>0.27999999999999997</v>
+      <c r="Q97" s="55">
+        <v>1.5934E-7</v>
+      </c>
+      <c r="R97" s="55">
+        <v>1.32783E-6</v>
       </c>
     </row>
-    <row r="98" spans="21:26" x14ac:dyDescent="0.45">
-      <c r="U98" s="85">
-        <v>0.54747599999999996</v>
-      </c>
-      <c r="V98" s="92">
-        <f>J51</f>
-        <v>1.44</v>
-      </c>
-      <c r="W98" s="92">
-        <f t="shared" ref="V98:X98" si="25">M51</f>
-        <v>0.26</v>
-      </c>
-      <c r="X98" s="92">
-        <f t="shared" si="25"/>
-        <v>0.8</v>
-      </c>
-      <c r="Y98" s="85">
-        <f t="shared" si="22"/>
-        <v>0.37999999999999989</v>
-      </c>
-      <c r="Z98" s="92">
-        <f t="shared" ref="Z98:Z101" si="26">W98+X98</f>
-        <v>1.06</v>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A98" s="104"/>
+      <c r="B98" s="119"/>
+      <c r="C98" s="104"/>
+      <c r="D98" s="104"/>
+      <c r="E98" s="104"/>
+      <c r="F98" s="104">
+        <v>7</v>
+      </c>
+      <c r="G98" s="104">
+        <v>3</v>
+      </c>
+      <c r="H98" s="104">
+        <v>40152293</v>
+      </c>
+      <c r="I98" s="104">
+        <v>110.92</v>
+      </c>
+      <c r="J98" s="104">
+        <v>50.84</v>
+      </c>
+      <c r="K98" s="104">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L98" s="104">
+        <v>25.22</v>
+      </c>
+      <c r="M98" s="104">
+        <v>17.38</v>
+      </c>
+      <c r="N98" s="104">
+        <v>7.16</v>
+      </c>
+      <c r="Q98" s="55">
+        <v>1.78321E-7</v>
+      </c>
+      <c r="R98" s="55">
+        <v>1.2661799999999999E-6</v>
       </c>
     </row>
-    <row r="99" spans="21:26" x14ac:dyDescent="0.45">
-      <c r="U99" s="85">
-        <v>2.1744159999999999</v>
-      </c>
-      <c r="V99" s="92">
-        <f>J54</f>
-        <v>6.11</v>
-      </c>
-      <c r="W99" s="92">
-        <f t="shared" ref="V99:X99" si="27">M54</f>
-        <v>1.1100000000000003</v>
-      </c>
-      <c r="X99" s="92">
-        <f t="shared" si="27"/>
-        <v>3.12</v>
-      </c>
-      <c r="Y99" s="85">
-        <f t="shared" si="22"/>
-        <v>1.88</v>
-      </c>
-      <c r="Z99" s="92">
-        <f t="shared" si="26"/>
-        <v>4.2300000000000004</v>
-      </c>
+    <row r="113" spans="19:19" x14ac:dyDescent="0.45">
+      <c r="S113" s="104"/>
     </row>
-    <row r="100" spans="21:26" x14ac:dyDescent="0.45">
-      <c r="U100" s="85">
-        <v>8.6901840000000004</v>
-      </c>
-      <c r="V100" s="92">
-        <f>J57</f>
-        <v>25.45</v>
-      </c>
-      <c r="W100" s="92">
-        <f t="shared" ref="V100:X100" si="28">M57</f>
-        <v>4.0299999999999976</v>
-      </c>
-      <c r="X100" s="92">
-        <f t="shared" si="28"/>
-        <v>12.48</v>
-      </c>
-      <c r="Y100" s="85">
-        <f t="shared" si="22"/>
-        <v>8.9400000000000013</v>
-      </c>
-      <c r="Z100" s="92">
-        <f t="shared" si="26"/>
-        <v>16.509999999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="21:26" x14ac:dyDescent="0.45">
-      <c r="U101" s="85">
-        <v>35.013452999999998</v>
-      </c>
-      <c r="V101" s="92">
-        <f>J60</f>
-        <v>106.73</v>
-      </c>
-      <c r="W101" s="92">
-        <f t="shared" ref="V101:X101" si="29">M60</f>
-        <v>15.900000000000006</v>
-      </c>
-      <c r="X101" s="92">
-        <f t="shared" si="29"/>
-        <v>51.78</v>
-      </c>
-      <c r="Y101" s="85">
-        <f t="shared" si="22"/>
-        <v>39.049999999999997</v>
-      </c>
-      <c r="Z101" s="92">
-        <f t="shared" si="26"/>
-        <v>67.680000000000007</v>
-      </c>
+    <row r="114" spans="19:19" x14ac:dyDescent="0.45">
+      <c r="S114" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B97:B98"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="B46:B55"/>
     <mergeCell ref="B21:B26"/>
@@ -19053,14 +19233,199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D2886B-63D6-42EE-81E5-419CB8A2A8E9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="T17" sqref="J8:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="8.05859375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.8203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.05859375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="95">
+        <v>10278</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="95">
+        <v>0</v>
+      </c>
+      <c r="G2" s="95">
+        <v>8000</v>
+      </c>
+      <c r="H2" s="106">
+        <v>1984000</v>
+      </c>
+      <c r="I2" s="106">
+        <v>1024000</v>
+      </c>
+      <c r="J2" s="102">
+        <f>(H2-I2)/H2</f>
+        <v>0.4838709677419355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B3" s="95"/>
+      <c r="C3" s="110"/>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>144374</v>
+      </c>
+      <c r="H3" s="106">
+        <v>55398120</v>
+      </c>
+      <c r="I3" s="106">
+        <v>31788734</v>
+      </c>
+      <c r="J3" s="102">
+        <f>(H3-I3)/H3</f>
+        <v>0.42617666447886682</v>
+      </c>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B4" s="95"/>
+      <c r="C4" s="110"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="102"/>
+      <c r="M4" s="100"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="K5" s="101"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="L6" s="100"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="10"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.35" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
